--- a/docs/LTA1_C/LTA1_C_16.08.2024_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731790386.5112326</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731790387.634512</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790386.5112326.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790387.634512.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.92</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731790388.6110196</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731790388.8785775</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790388.6110196.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790388.8785775.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.83</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.589999999999975</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731790389.753898</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731790390.6462178</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790389.753898.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790390.6462178.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.62</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731790392.2562811</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731790393.4129674</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790392.2562811.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790393.4129674.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.23</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.32</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731790393.4249353</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731790393.4964585</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790393.4249353.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731790393.4964585.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.32</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731790393.6991708</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731790394.4130754</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790393.6991708.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790394.4130754.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.23</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6899999999999977</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731790395.030425</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731790395.2308886</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790395.030425.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790395.2308886.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.24</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.83</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.589999999999975</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731790395.7924128</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731790396.3997602</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790395.7924128.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790396.3997602.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.62</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731790397.5556674</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731790398.290701</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790397.5556674.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790398.290701.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.23</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.32</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.08999999999997499</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731790398.3026688</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731790398.3375754</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790398.3026688.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790398.3375754.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.3</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731790398.9738953</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731790399.5534863</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790398.9738953.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790399.5534863.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.48</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.11</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731790402.007648</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731790403.0141015</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790402.007648.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790403.0141015.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.44</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.02</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731790405.072474</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731790406.0331557</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790405.072474.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790406.0331557.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.64</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731790406.0461035</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731790406.1257644</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790406.0461035.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790406.1257644.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.64</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.67</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.03000000000002956</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731790406.1377316</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731790406.174731</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790406.1377316.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731790406.174731.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.67</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>278.51</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.160000000000025</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1319,43 +1425,49 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731790406.265536</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731790406.265536.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731790406.265536.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>278.65</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>278.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731790406.8044364</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731790410.24836</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790406.8044364.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790410.24836.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.37</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.39</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731790410.276044</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731790410.4246888</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790410.276044.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790410.4246888.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.68</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.27</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4100000000000108</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731790412.418119</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731790413.5776198</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790412.418119.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731790413.5776198.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.56</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>128.11</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.5500000000000114</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1519,95 +1649,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731790413.5895848</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731790413.5895848.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731790413.5895848.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>128.11</v>
       </c>
-      <c r="J22" t="n">
-        <v>128.11</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>127.95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.1600000000000108</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731790414.2803712</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731790418.9198623</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790414.2803712.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790418.9198623.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6329.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6314</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-15.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731790419.37446</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731790420.5595887</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790419.37446.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731790420.5595887.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6320</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1667,43 +1815,49 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731790420.7364998</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731790420.7364998.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731790420.7364998.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6326</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6326</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731790423.5561953</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731790426.7388933</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790423.5561953.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790426.7388933.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>493.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>493.65</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731790427.1080303</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731790427.2966123</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790427.1080303.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790427.2966123.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>494.45</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>493.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.25</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731790427.6857686</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731790427.8460138</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790427.6857686.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731790427.8460138.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>494.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>493.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1867,95 +2039,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731790427.897295</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731790427.897295.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731790427.897295.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>494.25</v>
       </c>
-      <c r="J29" t="n">
-        <v>494.25</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>494.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731790428.1578195</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731790429.0371692</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790428.1578195.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790429.0371692.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>222.99</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>223.86</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.8700000000000045</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731790430.887642</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731790431.3543913</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790430.887642.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790431.3543913.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>223.22</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>223.45</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731790431.5454707</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731790433.2005022</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790431.5454707.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790433.2005022.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>223.71</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>223.57</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731790435.394428</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731790435.4267209</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.394428.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.4267209.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>223.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>223.77</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731790435.4396539</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731790435.4674792</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.4396539.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.4674792.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>223.77</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>223.79</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731790435.5423262</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731790435.5718067</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.5423262.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731790435.5718067.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>223.73</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>223.77</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2223,43 +2437,49 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731790435.603675</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731790435.603675.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731790435.603675.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>223.8</v>
       </c>
-      <c r="J36" t="n">
-        <v>223.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
+        <v>223.79</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01000000000001933</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731790436.2383835</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731790441.0747108</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790436.2383835.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790441.0747108.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1017</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-9.400000000000091</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731790441.372548</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731790441.6634507</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790441.372548.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790441.6634507.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1019.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1020.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731790441.6753948</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731790441.7897727</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790441.6753948.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731790441.7897727.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1020.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731790441.8873048</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731790445.1413987</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790441.8873048.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731790445.1413987.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.115</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>12.115</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2475,95 +2719,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731790445.8770707</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731790445.8770707.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731790445.8770707.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.092</v>
       </c>
-      <c r="J41" t="n">
-        <v>12.092</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>12.098</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.006000000000000227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731790449.2030709</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731790452.3039467</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790449.2030709.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790452.3039467.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.22</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.94</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731790453.0926678</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731790455.6838024</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790453.0926678.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790455.6838024.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.14</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>126.88</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.739999999999995</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-1.39</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731790455.696774</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731790455.904177</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790455.696774.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731790455.904177.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>126.88</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>127.06</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2675,43 +2943,49 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731790455.9343815</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731790455.9343815.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731790455.9343815.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>127.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>127.1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2719,51 +2993,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731790455.9760017</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731790459.2994745</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790455.9760017.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790459.2994745.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>161.68</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>162</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2771,51 +3051,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731790459.8109694</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731790463.1256423</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790459.8109694.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790463.1256423.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>162.36</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>162.92</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.5599999999999739</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2823,51 +3109,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731790463.1596868</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731790463.220737</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790463.1596868.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731790463.220737.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>162.78</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>162.9</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2875,95 +3167,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731790463.2496595</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731790463.2496595.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731790463.2496595.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.96</v>
       </c>
-      <c r="J49" t="n">
-        <v>162.96</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731790463.4338627</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731790466.5094748</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790463.4338627.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790466.5094748.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>49.735</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>49.76</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731790467.4272337</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731790468.3665373</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790467.4272337.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790468.3665373.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.655</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.72</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731790468.4203558</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731790469.5472226</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790468.4203558.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731790469.5472226.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.765</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>49.825</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3075,95 +3391,107 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731790469.574206</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731790469.574206.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731790469.574206.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>49.765</v>
       </c>
-      <c r="J53" t="n">
-        <v>49.765</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731790470.7299871</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731790470.8185694</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790470.7299871.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790470.8185694.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1377</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1383.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3171,51 +3499,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731790471.1669176</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731790474.3402967</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790471.1669176.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790474.3402967.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1377.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1379.6</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.199999999999818</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3223,51 +3557,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731790475.0853977</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731790476.5207124</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790475.0853977.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790476.5207124.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1387.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-4.599999999999909</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3275,51 +3615,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731790476.5711453</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731790476.6119754</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790476.5711453.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790476.6119754.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1388</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1387.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3327,51 +3673,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731790476.6633718</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731790476.7211437</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790476.6633718.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731790476.7211437.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1388</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1387.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731790477.6713774</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731790478.0366523</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790477.6713774.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790478.0366523.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.94</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.81</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731790479.3205538</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731790479.8276339</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790479.3205538.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790479.8276339.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>58.75</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>58.83</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731790480.7343812</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731790483.1311781</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790480.7343812.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790483.1311781.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>58.75</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>58.72</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731790484.2394378</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731790484.3714333</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790484.2394378.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731790484.3714333.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.63</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>58.68</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731790486.4088237</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731790487.3223314</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790486.4088237.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790487.3223314.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>98.55</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>98.76000000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731790487.7045183</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731790491.1249936</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790487.7045183.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731790491.1249936.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>98.88</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.6600000000000108</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -3691,95 +4079,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731790491.137959</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731790491.137959.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731790491.137959.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>99.54000000000001</v>
       </c>
-      <c r="J65" t="n">
-        <v>99.54000000000001</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>99.36</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731790491.4645162</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731790496.53485</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790491.4645162.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790496.53485.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>54.7</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>54.5</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3787,51 +4187,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731790496.6208286</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731790497.8908708</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790496.6208286.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731790497.8908708.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>54.61</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>55.19</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.5799999999999983</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-1.06</v>
       </c>
     </row>
@@ -3839,95 +4245,107 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731790498.036749</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731790498.036749.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731790498.036749.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>55.09</v>
       </c>
-      <c r="J68" t="n">
-        <v>55.09</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>55.08</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731790498.4460073</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731790499.7751768</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790498.4460073.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790499.7751768.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>152.14</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>153.28</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.140000000000015</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3935,51 +4353,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731790501.5332892</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731790502.1242526</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790501.5332892.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731790502.1242526.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>152.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>152.78</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6800000000000068</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3987,95 +4411,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731790503.0684595</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731790503.0684595.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731790503.0684595.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>153.12</v>
       </c>
-      <c r="J71" t="n">
-        <v>153.12</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>153.28</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731790503.4007099</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731790505.870072</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790503.4007099.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731790505.870072.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.3025</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.306</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.003500000000000003</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -4083,95 +4519,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731790505.884007</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731790505.884007.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731790505.884007.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.306</v>
       </c>
-      <c r="J73" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0004000000000000115</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731790506.1112554</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731790510.0238948</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790506.1112554.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731790510.0238948.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>19.845</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>19.82</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4179,95 +4627,107 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731790511.602767</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731790511.602767.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731790511.602767.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>19.828</v>
       </c>
-      <c r="J75" t="n">
-        <v>19.828</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.1419999999999995</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731790515.6724472</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731790516.387545</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790515.6724472.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790516.387545.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>675.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>677.35</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.300000000000068</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4275,51 +4735,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731790517.435675</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731790518.256447</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790517.435675.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731790518.256447.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>675</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>674.95</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4327,95 +4793,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731790518.56842</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731790518.56842.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731790518.56842.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>676.2</v>
       </c>
-      <c r="J78" t="n">
-        <v>676.2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>674.9</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.300000000000068</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731790519.6980772</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731790524.704757</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790519.6980772.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731790524.704757.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>148.67</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>148.83</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.160000000000025</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4423,44 +4901,50 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731790524.7955325</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731790524.7955325.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731790524.7955325.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>149.04</v>
       </c>
-      <c r="J80" t="n">
-        <v>149.04</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>149.02</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4543,13 +5027,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.330000000000013</v>
+        <v>1.340000000000032</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1900000000000018</v>
+        <v>0.191428571428576</v>
       </c>
       <c r="E3" t="n">
         <v>0.59</v>
@@ -4609,19 +5093,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1199999999999761</v>
+        <v>-0.09999999999996589</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02999999999999403</v>
+        <v>-0.02499999999999147</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06999999999999997</v>
+        <v>-0.05999999999999996</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
@@ -4631,19 +5115,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-0.2800000000000153</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.07000000000000384</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08999999999999997</v>
+        <v>-0.21</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
@@ -4675,16 +5159,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02999999999999403</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007499999999998508</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
@@ -4697,19 +5181,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.699999999999932</v>
+        <v>1.449999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4249999999999829</v>
+        <v>0.3624999999999829</v>
       </c>
       <c r="E10" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4763,16 +5247,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7800000000000011</v>
+        <v>-0.7900000000000063</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2600000000000004</v>
+        <v>-0.2633333333333354</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.43</v>
+        <v>-1.45</v>
       </c>
       <c r="F13" t="n">
         <v>-0.48</v>
@@ -4785,19 +5269,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.820000000000022</v>
+        <v>1.660000000000025</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6066666666666739</v>
+        <v>0.5533333333333417</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
@@ -4807,19 +5291,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.250000000000114</v>
+        <v>3.550000000000182</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7500000000000379</v>
+        <v>1.183333333333394</v>
       </c>
       <c r="E15" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
@@ -4851,19 +5335,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4500000000000028</v>
+        <v>-0.6300000000000097</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1500000000000009</v>
+        <v>-0.2100000000000032</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4600000000000001</v>
+        <v>-0.6400000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.15</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="18">
@@ -4873,19 +5357,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02499999999999858</v>
+        <v>-0.166999999999998</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01249999999999929</v>
+        <v>-0.08349999999999902</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.13</v>
+        <v>-0.85</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.06</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="19">
@@ -4895,16 +5379,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.160000000000025</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08000000000001251</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F19" t="n">
         <v>0.06</v>
@@ -4917,19 +5401,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.003900000000000015</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001750000000000002</v>
+        <v>0.001950000000000007</v>
       </c>
       <c r="E20" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="F20" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
@@ -4939,19 +5423,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
